--- a/output/file_encoding_checker_list.xlsx
+++ b/output/file_encoding_checker_list.xlsx
@@ -579,7 +579,7 @@
     </row>
     <row r="4">
       <c r="B4" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
     </row>
     <row r="5">
       <c r="B5" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="B6" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
     </row>
     <row r="7">
       <c r="B7" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
@@ -695,7 +695,7 @@
     </row>
     <row r="8">
       <c r="B8" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
@@ -725,7 +725,7 @@
     </row>
     <row r="9">
       <c r="B9" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
     </row>
     <row r="10">
       <c r="B10" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
     </row>
     <row r="11">
       <c r="B11" s="6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="12">
       <c r="B12" s="6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
     </row>
     <row r="13">
       <c r="B13" s="6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
